--- a/xlsx/美少女_intext.xlsx
+++ b/xlsx/美少女_intext.xlsx
@@ -29,7 +29,7 @@
     <t>美女</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_美少女</t>
+    <t>政策_政策_维基百科_美少女</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A8%E9%9F%B3%E5%81%87%E5%90%8D</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%92%E7%AB%A5</t>
   </si>
   <si>
-    <t>兒童</t>
+    <t>儿童</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E5%B0%91%E5%B9%B4</t>
@@ -89,13 +89,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%A5%9E%E8%A9%B1</t>
   </si>
   <si>
-    <t>日本神話</t>
+    <t>日本神话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%BC%89%E8%AB%BE%E5%B0%8A</t>
   </si>
   <si>
-    <t>伊弉諾尊</t>
+    <t>伊弉诺尊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%AE%B0%E6%B2%BB</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E8%97%A4%E4%B9%85%E7%BE%8E%E5%AD%90</t>
   </si>
   <si>
-    <t>後藤久美子</t>
+    <t>后藤久美子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8C</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E7%B7%9A</t>
   </si>
   <si>
-    <t>光線</t>
+    <t>光线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%94%9C%E7%94%9C</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -161,43 +161,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BF%E5%85%92%E5%B3%B6</t>
   </si>
   <si>
-    <t>鹿兒島</t>
+    <t>鹿儿岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B0%91%E5%A5%B3%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>美少女遊戲</t>
+    <t>美少女游戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%BF%E8%8E%89</t>
   </si>
   <si>
-    <t>蘿莉</t>
+    <t>萝莉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%98%BF%E8%8E%89</t>
   </si>
   <si>
-    <t>小蘿莉</t>
+    <t>小萝莉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%84%9B</t>
   </si>
   <si>
-    <t>可愛</t>
+    <t>可爱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%83%E5%A8%83%E8%84%B8</t>
@@ -209,13 +209,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%8B%95%E6%BC%AB%E8%BF%B7%E4%BD%BF%E7%94%A8%E8%A1%93%E8%AA%9E%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>日本動漫迷使用術語列表</t>
+    <t>日本动漫迷使用术语列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E8%90%8C%E5%B1%AC%E6%80%A7</t>
   </si>
   <si>
-    <t>Template talk-萌屬性</t>
+    <t>Template talk-萌属性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A6%B9</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%85%92%E7%AA%A9</t>
   </si>
   <si>
-    <t>酒窩</t>
+    <t>酒窝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A8%E4%B9%B3</t>
@@ -269,13 +269,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%BD%E5%A8%98</t>
   </si>
   <si>
-    <t>偽娘</t>
+    <t>伪娘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B6%E4%BB%96%E9%82%A3%E8%A3%A1</t>
   </si>
   <si>
-    <t>扶他那裡</t>
+    <t>扶他那里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E5%B7%A8%E4%BA%BA</t>
@@ -287,49 +287,49 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%B8%E8%80%B3</t>
   </si>
   <si>
-    <t>獸耳</t>
+    <t>兽耳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%93%E4%BA%BA</t>
   </si>
   <si>
-    <t>貓人</t>
+    <t>猫人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E7%8D%B8%E4%BA%BA</t>
   </si>
   <si>
-    <t>女性獸人</t>
+    <t>女性兽人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%B8%E4%BA%BA%E6%AD%A3%E5%A4%AA</t>
   </si>
   <si>
-    <t>獸人正太</t>
+    <t>兽人正太</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%B8%E4%BA%BA%E8%98%BF%E8%8E%89</t>
   </si>
   <si>
-    <t>獸人蘿莉</t>
+    <t>兽人萝莉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E9%A6%AC%E5%B0%BE</t>
   </si>
   <si>
-    <t>雙馬尾</t>
+    <t>双马尾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%B0%BE</t>
   </si>
   <si>
-    <t>馬尾</t>
+    <t>马尾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%AC%E9%AB%AE%E5%BC%8F</t>
   </si>
   <si>
-    <t>姬髮式</t>
+    <t>姬发式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%86%E6%AF%9B</t>
@@ -341,19 +341,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%AE%E5%AD%90</t>
   </si>
   <si>
-    <t>辮子</t>
+    <t>辫子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E5%8F%A3</t>
   </si>
   <si>
-    <t>無口</t>
+    <t>无口</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%83%95%E5%A8%98</t>
   </si>
   <si>
-    <t>僕娘</t>
+    <t>仆娘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%92%E5%A4%B1%E5%A8%98</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%92%8C%E6%92%AB%E5%AD%90</t>
   </si>
   <si>
-    <t>大和撫子</t>
+    <t>大和抚子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%84%B6%E5%91%86</t>
@@ -377,19 +377,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B2%E5%AC%8C</t>
   </si>
   <si>
-    <t>傲嬌</t>
+    <t>傲娇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%97%85%E5%AC%8C</t>
   </si>
   <si>
-    <t>病嬌</t>
+    <t>病娇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E5%AC%8C</t>
   </si>
   <si>
-    <t>冷嬌</t>
+    <t>冷娇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%B9%E9%BB%91</t>
@@ -419,31 +419,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%BE%B7%E8%98%BF%E8%8E%89</t>
   </si>
   <si>
-    <t>哥德蘿莉</t>
+    <t>哥德萝莉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A1%E6%B3%A1%E8%A5%AA</t>
   </si>
   <si>
-    <t>泡泡襪</t>
+    <t>泡泡袜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%BC%E9%8F%A1%E8%A7%92%E8%89%B2</t>
   </si>
   <si>
-    <t>眼鏡角色</t>
+    <t>眼镜角色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8A%E8%A5%AA%E5%B8%B6</t>
   </si>
   <si>
-    <t>吊襪帶</t>
+    <t>吊袜带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%AD%B8%E7%94%9F%E6%B3%B3%E8%A1%A3</t>
   </si>
   <si>
-    <t>日本學生泳衣</t>
+    <t>日本学生泳衣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%80%E7%AA%81</t>
@@ -455,19 +455,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%88%E7%B1%A0%E8%A4%B2</t>
   </si>
   <si>
-    <t>燈籠褲</t>
+    <t>灯笼裤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%95%E5%B0%8D%E9%A0%98%E5%9F%9F</t>
   </si>
   <si>
-    <t>絕對領域</t>
+    <t>绝对领域</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%86%9D%E4%B8%8A%E8%A5%AA</t>
   </si>
   <si>
-    <t>膝上襪</t>
+    <t>膝上袜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%B8%E4%BD%93%E5%9B%B4%E8%A3%99</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E8%A5%AA</t>
   </si>
   <si>
-    <t>長襪</t>
+    <t>长袜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%94%E6%B3%95%E5%B0%91%E5%A5%B3</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E5%82%AD</t>
   </si>
   <si>
-    <t>女傭</t>
+    <t>女佣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%AB%E5%A5%B3</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E6%A2%85%E7%AB%B9%E9%A6%AC</t>
   </si>
   <si>
-    <t>青梅竹馬</t>
+    <t>青梅竹马</t>
   </si>
 </sst>
 </file>
